--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dll3-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dll3-Notch1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,6 +88,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Notch1</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.334443</v>
+        <v>0.3453386666666667</v>
       </c>
       <c r="H2">
-        <v>1.003329</v>
+        <v>1.036016</v>
       </c>
       <c r="I2">
-        <v>0.3499365577394326</v>
+        <v>0.2594726725147298</v>
       </c>
       <c r="J2">
-        <v>0.3499365577394326</v>
+        <v>0.2594726725147297</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>45.13108133333333</v>
+        <v>62.58874</v>
       </c>
       <c r="N2">
-        <v>135.393244</v>
+        <v>187.76622</v>
       </c>
       <c r="O2">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873656</v>
       </c>
       <c r="P2">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873655</v>
       </c>
       <c r="Q2">
-        <v>15.093774234364</v>
+        <v>21.61431201994667</v>
       </c>
       <c r="R2">
-        <v>135.843968109276</v>
+        <v>194.52880817952</v>
       </c>
       <c r="S2">
-        <v>0.1109414415195971</v>
+        <v>0.1123827266193923</v>
       </c>
       <c r="T2">
-        <v>0.1109414415195971</v>
+        <v>0.1123827266193923</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.334443</v>
+        <v>0.3453386666666667</v>
       </c>
       <c r="H3">
-        <v>1.003329</v>
+        <v>1.036016</v>
       </c>
       <c r="I3">
-        <v>0.3499365577394326</v>
+        <v>0.2594726725147298</v>
       </c>
       <c r="J3">
-        <v>0.3499365577394326</v>
+        <v>0.2594726725147297</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>17.152367</v>
       </c>
       <c r="O3">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562308</v>
       </c>
       <c r="P3">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562306</v>
       </c>
       <c r="Q3">
-        <v>1.912163025527</v>
+        <v>1.974458516652444</v>
       </c>
       <c r="R3">
-        <v>17.209467229743</v>
+        <v>17.770126649872</v>
       </c>
       <c r="S3">
-        <v>0.01405467705946367</v>
+        <v>0.01026611587236771</v>
       </c>
       <c r="T3">
-        <v>0.01405467705946367</v>
+        <v>0.0102661158723677</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.334443</v>
+        <v>0.3453386666666667</v>
       </c>
       <c r="H4">
-        <v>1.003329</v>
+        <v>1.036016</v>
       </c>
       <c r="I4">
-        <v>0.3499365577394326</v>
+        <v>0.2594726725147298</v>
       </c>
       <c r="J4">
-        <v>0.3499365577394326</v>
+        <v>0.2594726725147297</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.17143466666666</v>
+        <v>16.124321</v>
       </c>
       <c r="N4">
-        <v>42.514304</v>
+        <v>48.372963</v>
       </c>
       <c r="O4">
-        <v>0.09955029901182223</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="P4">
-        <v>0.09955029901182225</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="Q4">
-        <v>4.739537124224</v>
+        <v>5.568351515045333</v>
       </c>
       <c r="R4">
-        <v>42.655834118016</v>
+        <v>50.115163635408</v>
       </c>
       <c r="S4">
-        <v>0.03483628895812831</v>
+        <v>0.02895241474530924</v>
       </c>
       <c r="T4">
-        <v>0.03483628895812832</v>
+        <v>0.02895241474530923</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.334443</v>
+        <v>0.3453386666666667</v>
       </c>
       <c r="H5">
-        <v>1.003329</v>
+        <v>1.036016</v>
       </c>
       <c r="I5">
-        <v>0.3499365577394326</v>
+        <v>0.2594726725147298</v>
       </c>
       <c r="J5">
-        <v>0.3499365577394326</v>
+        <v>0.2594726725147297</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>32.85839333333333</v>
+        <v>11.37633566666667</v>
       </c>
       <c r="N5">
-        <v>98.57517999999999</v>
+        <v>34.129007</v>
       </c>
       <c r="O5">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705194</v>
       </c>
       <c r="P5">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705191</v>
       </c>
       <c r="Q5">
-        <v>10.98925964158</v>
+        <v>3.928688590679112</v>
       </c>
       <c r="R5">
-        <v>98.90333677422001</v>
+        <v>35.358197316112</v>
       </c>
       <c r="S5">
-        <v>0.08077266076329301</v>
+        <v>0.0204270547890474</v>
       </c>
       <c r="T5">
-        <v>0.08077266076329301</v>
+        <v>0.02042705478904739</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.334443</v>
+        <v>0.3453386666666667</v>
       </c>
       <c r="H6">
-        <v>1.003329</v>
+        <v>1.036016</v>
       </c>
       <c r="I6">
-        <v>0.3499365577394326</v>
+        <v>0.2594726725147298</v>
       </c>
       <c r="J6">
-        <v>0.3499365577394326</v>
+        <v>0.2594726725147297</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>28.53112133333333</v>
+        <v>36.54706633333333</v>
       </c>
       <c r="N6">
-        <v>85.59336400000001</v>
+        <v>109.641199</v>
       </c>
       <c r="O6">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="P6">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="Q6">
-        <v>9.542033812084002</v>
+        <v>12.62111515813156</v>
       </c>
       <c r="R6">
-        <v>85.87830430875601</v>
+        <v>113.590036423184</v>
       </c>
       <c r="S6">
-        <v>0.07013533988942305</v>
+        <v>0.06562296931492465</v>
       </c>
       <c r="T6">
-        <v>0.07013533988942305</v>
+        <v>0.06562296931492463</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.334443</v>
+        <v>0.3453386666666667</v>
       </c>
       <c r="H7">
-        <v>1.003329</v>
+        <v>1.036016</v>
       </c>
       <c r="I7">
-        <v>0.3499365577394326</v>
+        <v>0.2594726725147298</v>
       </c>
       <c r="J7">
-        <v>0.3499365577394326</v>
+        <v>0.2594726725147297</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.94503</v>
+        <v>12.15287633333333</v>
       </c>
       <c r="N7">
-        <v>47.83509</v>
+        <v>36.458629</v>
       </c>
       <c r="O7">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389245</v>
       </c>
       <c r="P7">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389244</v>
       </c>
       <c r="Q7">
-        <v>5.332703668290001</v>
+        <v>4.196858109118223</v>
       </c>
       <c r="R7">
-        <v>47.99433301461001</v>
+        <v>37.77172298206401</v>
       </c>
       <c r="S7">
-        <v>0.03919614954952749</v>
+        <v>0.02182139117368848</v>
       </c>
       <c r="T7">
-        <v>0.03919614954952748</v>
+        <v>0.02182139117368847</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>0.5999680000000001</v>
       </c>
       <c r="I8">
-        <v>0.2092541296761201</v>
+        <v>0.1502634132902556</v>
       </c>
       <c r="J8">
-        <v>0.2092541296761201</v>
+        <v>0.1502634132902555</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>45.13108133333333</v>
+        <v>62.58874</v>
       </c>
       <c r="N8">
-        <v>135.393244</v>
+        <v>187.76622</v>
       </c>
       <c r="O8">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873656</v>
       </c>
       <c r="P8">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873655</v>
       </c>
       <c r="Q8">
-        <v>9.025734868465779</v>
+        <v>12.51708038677334</v>
       </c>
       <c r="R8">
-        <v>81.23161381619201</v>
+        <v>112.65372348096</v>
       </c>
       <c r="S8">
-        <v>0.06634046736975573</v>
+        <v>0.06508204479890617</v>
       </c>
       <c r="T8">
-        <v>0.06634046736975573</v>
+        <v>0.06508204479890616</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>0.5999680000000001</v>
       </c>
       <c r="I9">
-        <v>0.2092541296761201</v>
+        <v>0.1502634132902556</v>
       </c>
       <c r="J9">
-        <v>0.2092541296761201</v>
+        <v>0.1502634132902555</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>17.152367</v>
       </c>
       <c r="O9">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562308</v>
       </c>
       <c r="P9">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562306</v>
       </c>
       <c r="Q9">
         <v>1.143430147139556</v>
@@ -1013,10 +1013,10 @@
         <v>10.290871324256</v>
       </c>
       <c r="S9">
-        <v>0.008404378310616257</v>
+        <v>0.005945218034965394</v>
       </c>
       <c r="T9">
-        <v>0.008404378310616257</v>
+        <v>0.00594521803496539</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>0.5999680000000001</v>
       </c>
       <c r="I10">
-        <v>0.2092541296761201</v>
+        <v>0.1502634132902556</v>
       </c>
       <c r="J10">
-        <v>0.2092541296761201</v>
+        <v>0.1502634132902555</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.17143466666666</v>
+        <v>16.124321</v>
       </c>
       <c r="N10">
-        <v>42.514304</v>
+        <v>48.372963</v>
       </c>
       <c r="O10">
-        <v>0.09955029901182223</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="P10">
-        <v>0.09955029901182225</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="Q10">
-        <v>2.834135771363556</v>
+        <v>3.224692207242667</v>
       </c>
       <c r="R10">
-        <v>25.507221942272</v>
+        <v>29.022229865184</v>
       </c>
       <c r="S10">
-        <v>0.02083131117871638</v>
+        <v>0.01676665454000102</v>
       </c>
       <c r="T10">
-        <v>0.02083131117871638</v>
+        <v>0.01676665454000102</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>0.5999680000000001</v>
       </c>
       <c r="I11">
-        <v>0.2092541296761201</v>
+        <v>0.1502634132902556</v>
       </c>
       <c r="J11">
-        <v>0.2092541296761201</v>
+        <v>0.1502634132902555</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>32.85839333333333</v>
+        <v>11.37633566666667</v>
       </c>
       <c r="N11">
-        <v>98.57517999999999</v>
+        <v>34.129007</v>
       </c>
       <c r="O11">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705194</v>
       </c>
       <c r="P11">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705191</v>
       </c>
       <c r="Q11">
-        <v>6.571328177137779</v>
+        <v>2.275145785752889</v>
       </c>
       <c r="R11">
-        <v>59.14195359424</v>
+        <v>20.476312071776</v>
       </c>
       <c r="S11">
-        <v>0.0483002202994545</v>
+        <v>0.011829526964521</v>
       </c>
       <c r="T11">
-        <v>0.0483002202994545</v>
+        <v>0.011829526964521</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1169,10 +1169,10 @@
         <v>0.5999680000000001</v>
       </c>
       <c r="I12">
-        <v>0.2092541296761201</v>
+        <v>0.1502634132902556</v>
       </c>
       <c r="J12">
-        <v>0.2092541296761201</v>
+        <v>0.1502634132902555</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>28.53112133333333</v>
+        <v>36.54706633333333</v>
       </c>
       <c r="N12">
-        <v>85.59336400000001</v>
+        <v>109.641199</v>
       </c>
       <c r="O12">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="P12">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="Q12">
-        <v>5.705919934705778</v>
+        <v>7.309023431292445</v>
       </c>
       <c r="R12">
-        <v>51.35327941235201</v>
+        <v>65.78121088163201</v>
       </c>
       <c r="S12">
-        <v>0.04193934352817209</v>
+        <v>0.03800296680160993</v>
       </c>
       <c r="T12">
-        <v>0.04193934352817209</v>
+        <v>0.03800296680160992</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1231,10 +1231,10 @@
         <v>0.5999680000000001</v>
       </c>
       <c r="I13">
-        <v>0.2092541296761201</v>
+        <v>0.1502634132902556</v>
       </c>
       <c r="J13">
-        <v>0.2092541296761201</v>
+        <v>0.1502634132902555</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.94503</v>
+        <v>12.15287633333333</v>
       </c>
       <c r="N13">
-        <v>47.83509</v>
+        <v>36.458629</v>
       </c>
       <c r="O13">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389245</v>
       </c>
       <c r="P13">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389244</v>
       </c>
       <c r="Q13">
-        <v>3.188835919680001</v>
+        <v>2.430445635985778</v>
       </c>
       <c r="R13">
-        <v>28.69952327712</v>
+        <v>21.874010723872</v>
       </c>
       <c r="S13">
-        <v>0.02343840898940518</v>
+        <v>0.01263700215025205</v>
       </c>
       <c r="T13">
-        <v>0.02343840898940517</v>
+        <v>0.01263700215025205</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.08807066666666667</v>
+        <v>0.05745766666666666</v>
       </c>
       <c r="H14">
-        <v>0.264212</v>
+        <v>0.172373</v>
       </c>
       <c r="I14">
-        <v>0.09215066821895009</v>
+        <v>0.04317122803063032</v>
       </c>
       <c r="J14">
-        <v>0.09215066821895007</v>
+        <v>0.04317122803063032</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>45.13108133333333</v>
+        <v>62.58874</v>
       </c>
       <c r="N14">
-        <v>135.393244</v>
+        <v>187.76622</v>
       </c>
       <c r="O14">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873656</v>
       </c>
       <c r="P14">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873655</v>
       </c>
       <c r="Q14">
-        <v>3.974724420414223</v>
+        <v>3.596202960006667</v>
       </c>
       <c r="R14">
-        <v>35.772519783728</v>
+        <v>32.36582664006</v>
       </c>
       <c r="S14">
-        <v>0.02921480406404658</v>
+        <v>0.01869830942337233</v>
       </c>
       <c r="T14">
-        <v>0.02921480406404658</v>
+        <v>0.01869830942337233</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.08807066666666667</v>
+        <v>0.05745766666666666</v>
       </c>
       <c r="H15">
-        <v>0.264212</v>
+        <v>0.172373</v>
       </c>
       <c r="I15">
-        <v>0.09215066821895009</v>
+        <v>0.04317122803063032</v>
       </c>
       <c r="J15">
-        <v>0.09215066821895007</v>
+        <v>0.04317122803063032</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>17.152367</v>
       </c>
       <c r="O15">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562308</v>
       </c>
       <c r="P15">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562306</v>
       </c>
       <c r="Q15">
-        <v>0.5035401322004445</v>
+        <v>0.3285116618767777</v>
       </c>
       <c r="R15">
-        <v>4.531861189803999</v>
+        <v>2.956604956891</v>
       </c>
       <c r="S15">
-        <v>0.003701093395321988</v>
+        <v>0.001708082878321993</v>
       </c>
       <c r="T15">
-        <v>0.003701093395321987</v>
+        <v>0.001708082878321992</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.08807066666666667</v>
+        <v>0.05745766666666666</v>
       </c>
       <c r="H16">
-        <v>0.264212</v>
+        <v>0.172373</v>
       </c>
       <c r="I16">
-        <v>0.09215066821895009</v>
+        <v>0.04317122803063032</v>
       </c>
       <c r="J16">
-        <v>0.09215066821895007</v>
+        <v>0.04317122803063032</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.17143466666666</v>
+        <v>16.124321</v>
       </c>
       <c r="N16">
-        <v>42.514304</v>
+        <v>48.372963</v>
       </c>
       <c r="O16">
-        <v>0.09955029901182223</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="P16">
-        <v>0.09955029901182225</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="Q16">
-        <v>1.248087698716444</v>
+        <v>0.9264658612443332</v>
       </c>
       <c r="R16">
-        <v>11.232789288448</v>
+        <v>8.338192751198999</v>
       </c>
       <c r="S16">
-        <v>0.009173626575335705</v>
+        <v>0.004817121151500739</v>
       </c>
       <c r="T16">
-        <v>0.009173626575335705</v>
+        <v>0.004817121151500738</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.08807066666666667</v>
+        <v>0.05745766666666666</v>
       </c>
       <c r="H17">
-        <v>0.264212</v>
+        <v>0.172373</v>
       </c>
       <c r="I17">
-        <v>0.09215066821895009</v>
+        <v>0.04317122803063032</v>
       </c>
       <c r="J17">
-        <v>0.09215066821895007</v>
+        <v>0.04317122803063032</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>32.85839333333333</v>
+        <v>11.37633566666667</v>
       </c>
       <c r="N17">
-        <v>98.57517999999999</v>
+        <v>34.129007</v>
       </c>
       <c r="O17">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705194</v>
       </c>
       <c r="P17">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705191</v>
       </c>
       <c r="Q17">
-        <v>2.893860606462222</v>
+        <v>0.6536577026234445</v>
       </c>
       <c r="R17">
-        <v>26.04474545816</v>
+        <v>5.882919323611</v>
       </c>
       <c r="S17">
-        <v>0.02127029742546181</v>
+        <v>0.003398666347964189</v>
       </c>
       <c r="T17">
-        <v>0.02127029742546181</v>
+        <v>0.003398666347964187</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.08807066666666667</v>
+        <v>0.05745766666666666</v>
       </c>
       <c r="H18">
-        <v>0.264212</v>
+        <v>0.172373</v>
       </c>
       <c r="I18">
-        <v>0.09215066821895009</v>
+        <v>0.04317122803063032</v>
       </c>
       <c r="J18">
-        <v>0.09215066821895007</v>
+        <v>0.04317122803063032</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>28.53112133333333</v>
+        <v>36.54706633333333</v>
       </c>
       <c r="N18">
-        <v>85.59336400000001</v>
+        <v>109.641199</v>
       </c>
       <c r="O18">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="P18">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="Q18">
-        <v>2.512754876574223</v>
+        <v>2.099909155025222</v>
       </c>
       <c r="R18">
-        <v>22.614793889168</v>
+        <v>18.899182395227</v>
       </c>
       <c r="S18">
-        <v>0.01846911473989513</v>
+        <v>0.01091839130835962</v>
       </c>
       <c r="T18">
-        <v>0.01846911473989513</v>
+        <v>0.01091839130835962</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.08807066666666667</v>
+        <v>0.05745766666666666</v>
       </c>
       <c r="H19">
-        <v>0.264212</v>
+        <v>0.172373</v>
       </c>
       <c r="I19">
-        <v>0.09215066821895009</v>
+        <v>0.04317122803063032</v>
       </c>
       <c r="J19">
-        <v>0.09215066821895007</v>
+        <v>0.04317122803063032</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>15.94503</v>
+        <v>12.15287633333333</v>
       </c>
       <c r="N19">
-        <v>47.83509</v>
+        <v>36.458629</v>
       </c>
       <c r="O19">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389245</v>
       </c>
       <c r="P19">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389244</v>
       </c>
       <c r="Q19">
-        <v>1.40428942212</v>
+        <v>0.6982759174018889</v>
       </c>
       <c r="R19">
-        <v>12.63860479908</v>
+        <v>6.284483256617</v>
       </c>
       <c r="S19">
-        <v>0.01032173201888887</v>
+        <v>0.003630656921111454</v>
       </c>
       <c r="T19">
-        <v>0.01032173201888887</v>
+        <v>0.003630656921111453</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.176371</v>
+        <v>0.4190853333333334</v>
       </c>
       <c r="H20">
-        <v>0.5291130000000001</v>
+        <v>1.257256</v>
       </c>
       <c r="I20">
-        <v>0.1845416427464814</v>
+        <v>0.3148827569797948</v>
       </c>
       <c r="J20">
-        <v>0.1845416427464814</v>
+        <v>0.3148827569797948</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>45.13108133333333</v>
+        <v>62.58874</v>
       </c>
       <c r="N20">
-        <v>135.393244</v>
+        <v>187.76622</v>
       </c>
       <c r="O20">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873656</v>
       </c>
       <c r="P20">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873655</v>
       </c>
       <c r="Q20">
-        <v>7.959813945841335</v>
+        <v>26.23002296581334</v>
       </c>
       <c r="R20">
-        <v>71.63832551257201</v>
+        <v>236.07020669232</v>
       </c>
       <c r="S20">
-        <v>0.05850579316132454</v>
+        <v>0.136381925895537</v>
       </c>
       <c r="T20">
-        <v>0.05850579316132454</v>
+        <v>0.136381925895537</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.176371</v>
+        <v>0.4190853333333334</v>
       </c>
       <c r="H21">
-        <v>0.5291130000000001</v>
+        <v>1.257256</v>
       </c>
       <c r="I21">
-        <v>0.1845416427464814</v>
+        <v>0.3148827569797948</v>
       </c>
       <c r="J21">
-        <v>0.1845416427464814</v>
+        <v>0.3148827569797948</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>17.152367</v>
       </c>
       <c r="O21">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562308</v>
       </c>
       <c r="P21">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562306</v>
       </c>
       <c r="Q21">
-        <v>1.008393373385667</v>
+        <v>2.396101813883555</v>
       </c>
       <c r="R21">
-        <v>9.075540360471001</v>
+        <v>21.564916324952</v>
       </c>
       <c r="S21">
-        <v>0.007411838333152934</v>
+        <v>0.01245843285936658</v>
       </c>
       <c r="T21">
-        <v>0.007411838333152934</v>
+        <v>0.01245843285936658</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.176371</v>
+        <v>0.4190853333333334</v>
       </c>
       <c r="H22">
-        <v>0.5291130000000001</v>
+        <v>1.257256</v>
       </c>
       <c r="I22">
-        <v>0.1845416427464814</v>
+        <v>0.3148827569797948</v>
       </c>
       <c r="J22">
-        <v>0.1845416427464814</v>
+        <v>0.3148827569797948</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>14.17143466666666</v>
+        <v>16.124321</v>
       </c>
       <c r="N22">
-        <v>42.514304</v>
+        <v>48.372963</v>
       </c>
       <c r="O22">
-        <v>0.09955029901182223</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="P22">
-        <v>0.09955029901182225</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="Q22">
-        <v>2.499430103594667</v>
+        <v>6.757466441058667</v>
       </c>
       <c r="R22">
-        <v>22.494870932352</v>
+        <v>60.817197969528</v>
       </c>
       <c r="S22">
-        <v>0.0183711757155451</v>
+        <v>0.03513516890958104</v>
       </c>
       <c r="T22">
-        <v>0.0183711757155451</v>
+        <v>0.03513516890958104</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.176371</v>
+        <v>0.4190853333333334</v>
       </c>
       <c r="H23">
-        <v>0.5291130000000001</v>
+        <v>1.257256</v>
       </c>
       <c r="I23">
-        <v>0.1845416427464814</v>
+        <v>0.3148827569797948</v>
       </c>
       <c r="J23">
-        <v>0.1845416427464814</v>
+        <v>0.3148827569797948</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>32.85839333333333</v>
+        <v>11.37633566666667</v>
       </c>
       <c r="N23">
-        <v>98.57517999999999</v>
+        <v>34.129007</v>
       </c>
       <c r="O23">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705194</v>
       </c>
       <c r="P23">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705191</v>
       </c>
       <c r="Q23">
-        <v>5.795267690593334</v>
+        <v>4.76765542497689</v>
       </c>
       <c r="R23">
-        <v>52.15740921534</v>
+        <v>42.908898824792</v>
       </c>
       <c r="S23">
-        <v>0.04259606256217877</v>
+        <v>0.02478922834768824</v>
       </c>
       <c r="T23">
-        <v>0.04259606256217877</v>
+        <v>0.02478922834768823</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.176371</v>
+        <v>0.4190853333333334</v>
       </c>
       <c r="H24">
-        <v>0.5291130000000001</v>
+        <v>1.257256</v>
       </c>
       <c r="I24">
-        <v>0.1845416427464814</v>
+        <v>0.3148827569797948</v>
       </c>
       <c r="J24">
-        <v>0.1845416427464814</v>
+        <v>0.3148827569797948</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>28.53112133333333</v>
+        <v>36.54706633333333</v>
       </c>
       <c r="N24">
-        <v>85.59336400000001</v>
+        <v>109.641199</v>
       </c>
       <c r="O24">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="P24">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="Q24">
-        <v>5.032062400681334</v>
+        <v>15.31633947666045</v>
       </c>
       <c r="R24">
-        <v>45.28856160613201</v>
+        <v>137.847055289944</v>
       </c>
       <c r="S24">
-        <v>0.03698639239463058</v>
+        <v>0.07963667733799951</v>
       </c>
       <c r="T24">
-        <v>0.03698639239463058</v>
+        <v>0.07963667733799951</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.176371</v>
+        <v>0.4190853333333334</v>
       </c>
       <c r="H25">
-        <v>0.5291130000000001</v>
+        <v>1.257256</v>
       </c>
       <c r="I25">
-        <v>0.1845416427464814</v>
+        <v>0.3148827569797948</v>
       </c>
       <c r="J25">
-        <v>0.1845416427464814</v>
+        <v>0.3148827569797948</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>15.94503</v>
+        <v>12.15287633333333</v>
       </c>
       <c r="N25">
-        <v>47.83509</v>
+        <v>36.458629</v>
       </c>
       <c r="O25">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389245</v>
       </c>
       <c r="P25">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389244</v>
       </c>
       <c r="Q25">
-        <v>2.812240886130001</v>
+        <v>5.093092229113778</v>
       </c>
       <c r="R25">
-        <v>25.31016797517</v>
+        <v>45.83783006202401</v>
       </c>
       <c r="S25">
-        <v>0.02067038057964948</v>
+        <v>0.0264813236296224</v>
       </c>
       <c r="T25">
-        <v>0.02067038057964948</v>
+        <v>0.0264813236296224</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,10 +2016,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -2031,16 +2031,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.1568506666666667</v>
+        <v>0.2344363333333333</v>
       </c>
       <c r="H26">
-        <v>0.470552</v>
+        <v>0.703309</v>
       </c>
       <c r="I26">
-        <v>0.1641170016190158</v>
+        <v>0.176145412651602</v>
       </c>
       <c r="J26">
-        <v>0.1641170016190158</v>
+        <v>0.1761454126516019</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>45.13108133333333</v>
+        <v>62.58874</v>
       </c>
       <c r="N26">
-        <v>135.393244</v>
+        <v>187.76622</v>
       </c>
       <c r="O26">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873656</v>
       </c>
       <c r="P26">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873655</v>
       </c>
       <c r="Q26">
-        <v>7.078840194520889</v>
+        <v>14.67307471355333</v>
       </c>
       <c r="R26">
-        <v>63.70956175068801</v>
+        <v>132.05767242198</v>
       </c>
       <c r="S26">
-        <v>0.05203050763002909</v>
+        <v>0.07629204865171792</v>
       </c>
       <c r="T26">
-        <v>0.0520305076300291</v>
+        <v>0.07629204865171789</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,10 +2078,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -2093,16 +2093,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.1568506666666667</v>
+        <v>0.2344363333333333</v>
       </c>
       <c r="H27">
-        <v>0.470552</v>
+        <v>0.703309</v>
       </c>
       <c r="I27">
-        <v>0.1641170016190158</v>
+        <v>0.176145412651602</v>
       </c>
       <c r="J27">
-        <v>0.1641170016190158</v>
+        <v>0.1761454126516019</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>17.152367</v>
       </c>
       <c r="O27">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562308</v>
       </c>
       <c r="P27">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562306</v>
       </c>
       <c r="Q27">
-        <v>0.8967867329537776</v>
+        <v>1.340379342489222</v>
       </c>
       <c r="R27">
-        <v>8.071080596584</v>
+        <v>12.063414082403</v>
       </c>
       <c r="S27">
-        <v>0.00659151325206861</v>
+        <v>0.006969247278110625</v>
       </c>
       <c r="T27">
-        <v>0.006591513252068612</v>
+        <v>0.006969247278110622</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,10 +2140,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -2155,16 +2155,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.1568506666666667</v>
+        <v>0.2344363333333333</v>
       </c>
       <c r="H28">
-        <v>0.470552</v>
+        <v>0.703309</v>
       </c>
       <c r="I28">
-        <v>0.1641170016190158</v>
+        <v>0.176145412651602</v>
       </c>
       <c r="J28">
-        <v>0.1641170016190158</v>
+        <v>0.1761454126516019</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>14.17143466666666</v>
+        <v>16.124321</v>
       </c>
       <c r="N28">
-        <v>42.514304</v>
+        <v>48.372963</v>
       </c>
       <c r="O28">
-        <v>0.09955029901182223</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="P28">
-        <v>0.09955029901182225</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="Q28">
-        <v>2.222798975089777</v>
+        <v>3.780126692729666</v>
       </c>
       <c r="R28">
-        <v>20.005190775808</v>
+        <v>34.021140234567</v>
       </c>
       <c r="S28">
-        <v>0.01633789658409673</v>
+        <v>0.01965461330916578</v>
       </c>
       <c r="T28">
-        <v>0.01633789658409674</v>
+        <v>0.01965461330916578</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,10 +2202,10 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
@@ -2217,16 +2217,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.1568506666666667</v>
+        <v>0.2344363333333333</v>
       </c>
       <c r="H29">
-        <v>0.470552</v>
+        <v>0.703309</v>
       </c>
       <c r="I29">
-        <v>0.1641170016190158</v>
+        <v>0.176145412651602</v>
       </c>
       <c r="J29">
-        <v>0.1641170016190158</v>
+        <v>0.1761454126516019</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>32.85839333333333</v>
+        <v>11.37633566666667</v>
       </c>
       <c r="N29">
-        <v>98.57517999999999</v>
+        <v>34.129007</v>
       </c>
       <c r="O29">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705194</v>
       </c>
       <c r="P29">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705191</v>
       </c>
       <c r="Q29">
-        <v>5.153860899928889</v>
+        <v>2.667026420462556</v>
       </c>
       <c r="R29">
-        <v>46.38474809936</v>
+        <v>24.003237784163</v>
       </c>
       <c r="S29">
-        <v>0.03788162912413481</v>
+        <v>0.01386709421150845</v>
       </c>
       <c r="T29">
-        <v>0.03788162912413481</v>
+        <v>0.01386709421150844</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,13 +2264,13 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2279,16 +2279,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.1568506666666667</v>
+        <v>0.2344363333333333</v>
       </c>
       <c r="H30">
-        <v>0.470552</v>
+        <v>0.703309</v>
       </c>
       <c r="I30">
-        <v>0.1641170016190158</v>
+        <v>0.176145412651602</v>
       </c>
       <c r="J30">
-        <v>0.1641170016190158</v>
+        <v>0.1761454126516019</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>28.53112133333333</v>
+        <v>36.54706633333333</v>
       </c>
       <c r="N30">
-        <v>85.59336400000001</v>
+        <v>109.641199</v>
       </c>
       <c r="O30">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="P30">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="Q30">
-        <v>4.475125401880889</v>
+        <v>8.567960225276778</v>
       </c>
       <c r="R30">
-        <v>40.27612861692801</v>
+        <v>77.111642027491</v>
       </c>
       <c r="S30">
-        <v>0.03289282424374038</v>
+        <v>0.04454875689749032</v>
       </c>
       <c r="T30">
-        <v>0.03289282424374039</v>
+        <v>0.04454875689749031</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,13 +2326,13 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2341,16 +2341,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.1568506666666667</v>
+        <v>0.2344363333333333</v>
       </c>
       <c r="H31">
-        <v>0.470552</v>
+        <v>0.703309</v>
       </c>
       <c r="I31">
-        <v>0.1641170016190158</v>
+        <v>0.176145412651602</v>
       </c>
       <c r="J31">
-        <v>0.1641170016190158</v>
+        <v>0.1761454126516019</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,400 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>15.94503</v>
+        <v>12.15287633333333</v>
       </c>
       <c r="N31">
-        <v>47.83509</v>
+        <v>36.458629</v>
       </c>
       <c r="O31">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389245</v>
       </c>
       <c r="P31">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389244</v>
       </c>
       <c r="Q31">
-        <v>2.50098858552</v>
+        <v>2.849075767040111</v>
       </c>
       <c r="R31">
-        <v>22.50889726968</v>
+        <v>25.641681903361</v>
       </c>
       <c r="S31">
-        <v>0.01838263078494617</v>
+        <v>0.01481365230360889</v>
       </c>
       <c r="T31">
-        <v>0.01838263078494617</v>
+        <v>0.01481365230360889</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G32">
+        <v>0.07461766666666667</v>
+      </c>
+      <c r="H32">
+        <v>0.223853</v>
+      </c>
+      <c r="I32">
+        <v>0.05606451653298771</v>
+      </c>
+      <c r="J32">
+        <v>0.05606451653298771</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>62.58874</v>
+      </c>
+      <c r="N32">
+        <v>187.76622</v>
+      </c>
+      <c r="O32">
+        <v>0.4331197020873656</v>
+      </c>
+      <c r="P32">
+        <v>0.4331197020873655</v>
+      </c>
+      <c r="Q32">
+        <v>4.670225738406667</v>
+      </c>
+      <c r="R32">
+        <v>42.03203164566</v>
+      </c>
+      <c r="S32">
+        <v>0.02428264669843982</v>
+      </c>
+      <c r="T32">
+        <v>0.02428264669843981</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G33">
+        <v>0.07461766666666667</v>
+      </c>
+      <c r="H33">
+        <v>0.223853</v>
+      </c>
+      <c r="I33">
+        <v>0.05606451653298771</v>
+      </c>
+      <c r="J33">
+        <v>0.05606451653298771</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>5.717455666666666</v>
+      </c>
+      <c r="N33">
+        <v>17.152367</v>
+      </c>
+      <c r="O33">
+        <v>0.03956530671562308</v>
+      </c>
+      <c r="P33">
+        <v>0.03956530671562306</v>
+      </c>
+      <c r="Q33">
+        <v>0.4266232011167777</v>
+      </c>
+      <c r="R33">
+        <v>3.839608810051</v>
+      </c>
+      <c r="S33">
+        <v>0.00221820979249078</v>
+      </c>
+      <c r="T33">
+        <v>0.002218209792490779</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G34">
+        <v>0.07461766666666667</v>
+      </c>
+      <c r="H34">
+        <v>0.223853</v>
+      </c>
+      <c r="I34">
+        <v>0.05606451653298771</v>
+      </c>
+      <c r="J34">
+        <v>0.05606451653298771</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>16.124321</v>
+      </c>
+      <c r="N34">
+        <v>48.372963</v>
+      </c>
+      <c r="O34">
+        <v>0.111581749494894</v>
+      </c>
+      <c r="P34">
+        <v>0.111581749494894</v>
+      </c>
+      <c r="Q34">
+        <v>1.203159209604333</v>
+      </c>
+      <c r="R34">
+        <v>10.828432886439</v>
+      </c>
+      <c r="S34">
+        <v>0.006255776839336177</v>
+      </c>
+      <c r="T34">
+        <v>0.006255776839336177</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G35">
+        <v>0.07461766666666667</v>
+      </c>
+      <c r="H35">
+        <v>0.223853</v>
+      </c>
+      <c r="I35">
+        <v>0.05606451653298771</v>
+      </c>
+      <c r="J35">
+        <v>0.05606451653298771</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>11.37633566666667</v>
+      </c>
+      <c r="N35">
+        <v>34.129007</v>
+      </c>
+      <c r="O35">
+        <v>0.07872526455705194</v>
+      </c>
+      <c r="P35">
+        <v>0.07872526455705191</v>
+      </c>
+      <c r="Q35">
+        <v>0.8488756226634445</v>
+      </c>
+      <c r="R35">
+        <v>7.639880603971</v>
+      </c>
+      <c r="S35">
+        <v>0.00441369389632267</v>
+      </c>
+      <c r="T35">
+        <v>0.004413693896322668</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G36">
+        <v>0.07461766666666667</v>
+      </c>
+      <c r="H36">
+        <v>0.223853</v>
+      </c>
+      <c r="I36">
+        <v>0.05606451653298771</v>
+      </c>
+      <c r="J36">
+        <v>0.05606451653298771</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>36.54706633333333</v>
+      </c>
+      <c r="N36">
+        <v>109.641199</v>
+      </c>
+      <c r="O36">
+        <v>0.2529089814311731</v>
+      </c>
+      <c r="P36">
+        <v>0.2529089814311731</v>
+      </c>
+      <c r="Q36">
+        <v>2.727056813305222</v>
+      </c>
+      <c r="R36">
+        <v>24.543511319747</v>
+      </c>
+      <c r="S36">
+        <v>0.01417921977078909</v>
+      </c>
+      <c r="T36">
+        <v>0.01417921977078909</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G37">
+        <v>0.07461766666666667</v>
+      </c>
+      <c r="H37">
+        <v>0.223853</v>
+      </c>
+      <c r="I37">
+        <v>0.05606451653298771</v>
+      </c>
+      <c r="J37">
+        <v>0.05606451653298771</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>12.15287633333333</v>
+      </c>
+      <c r="N37">
+        <v>36.458629</v>
+      </c>
+      <c r="O37">
+        <v>0.08409899571389245</v>
+      </c>
+      <c r="P37">
+        <v>0.08409899571389244</v>
+      </c>
+      <c r="Q37">
+        <v>0.9068192752818889</v>
+      </c>
+      <c r="R37">
+        <v>8.161373477536999</v>
+      </c>
+      <c r="S37">
+        <v>0.004714969535609187</v>
+      </c>
+      <c r="T37">
+        <v>0.004714969535609186</v>
       </c>
     </row>
   </sheetData>
